--- a/Table2_IronSndSpd.xlsx
+++ b/Table2_IronSndSpd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margarethuff/Documents/GitHub/Public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528CC06-37A8-404E-B211-BF3252FD7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FF699-6198-FB4B-9380-C9571F983B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="760" windowWidth="27640" windowHeight="16860" xr2:uid="{AF4D395B-B9C3-3147-AB31-57B8F77E505D}"/>
+    <workbookView xWindow="7220" yWindow="760" windowWidth="27640" windowHeight="16860" xr2:uid="{AF4D395B-B9C3-3147-AB31-57B8F77E505D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
